--- a/data/stock_oil.xlsx
+++ b/data/stock_oil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\time-series-research\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{932E66A1-BEDD-4BFC-BC1F-EBBB7EB5934B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B022AE-8826-4288-B50C-2E17D9FBFC52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -387,6 +386,15 @@
   </si>
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>Large / Small Stock</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Large</t>
   </si>
 </sst>
 </file>
@@ -482,16 +490,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2783,7 +2791,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:X28">
+  <sortState ref="A2:X27">
     <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2794,217 +2802,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAF7AA3-623A-4D83-A51A-20A693F5B279}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="21.5703125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="6">
         <v>300191</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="6">
         <v>300164</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="6">
         <v>603003</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>118</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
